--- a/results/AdaBoostClassifier_ElasticNet_randomsearch-train_df.xlsx
+++ b/results/AdaBoostClassifier_ElasticNet_randomsearch-train_df.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5319148936170213</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7173913043478261</v>
+        <v>0.6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6534653465346534</v>
+        <v>0.5714285714285713</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.6129032258064516</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6246530989824237</v>
+        <v>0.6113207547169811</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6289473684210527</v>
+        <v>0.6094619666048238</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6208503203261502</v>
+        <v>0.6092436974789915</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6416052440492177</v>
+        <v>0.6119293974437005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D6" t="n">
-        <v>0.626812206837382</v>
+        <v>0.6112767687720249</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.64</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6024096385542169</v>
+        <v>0.6464646464646464</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6796116504854369</v>
+        <v>0.5977011494252873</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.6236559139784946</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6423611111111112</v>
+        <v>0.6223255813953488</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6471291866028708</v>
+        <v>0.6219851576994434</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6410106445198269</v>
+        <v>0.6220828979449669</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6582287933094384</v>
+        <v>0.6232758189547386</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6480667423845083</v>
+        <v>0.6233937446395733</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6382978723404255</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7837837837837838</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5272727272727272</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6304347826086956</v>
+        <v>0.5609756097560975</v>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6129032258064516</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6597490347490347</v>
+        <v>0.6117224880382774</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6583732057416267</v>
+        <v>0.6083024118738405</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6343663274745606</v>
+        <v>0.6074108818011257</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6824220533897952</v>
+        <v>0.6120697638524463</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6336476579829508</v>
+        <v>0.6099074018035465</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.58</v>
       </c>
       <c r="C17" t="n">
-        <v>0.631578947368421</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5858585858585857</v>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6585365853658537</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4909090909090909</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5625</v>
+        <v>0.5287356321839081</v>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.5591397849462365</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.5591397849462365</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.5591397849462365</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.5591397849462365</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5600375234521576</v>
+        <v>0.5574418604651162</v>
       </c>
       <c r="C20" t="n">
-        <v>0.561244019138756</v>
+        <v>0.5572820037105751</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5479166666666666</v>
+        <v>0.5572971090212469</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.578042728318102</v>
+        <v>0.5586546636659164</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.5591397849462365</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5505824372759857</v>
+        <v>0.5588326722920717</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5500000000000002</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6862745098039216</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="D23" t="n">
-        <v>0.660377358490566</v>
+        <v>0.5609756097560975</v>
       </c>
       <c r="E23" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6050420168067228</v>
+        <v>0.6117224880382774</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6076555023923444</v>
+        <v>0.6083024118738405</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6051886792452831</v>
+        <v>0.6074108818011257</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6198909671395439</v>
+        <v>0.6120697638524463</v>
       </c>
       <c r="C26" t="n">
         <v>0.6129032258064516</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6152769324406574</v>
+        <v>0.6099074018035465</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>
